--- a/Python/Simplex_prova.xlsx
+++ b/Python/Simplex_prova.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
-    <t>iteration</t>
+    <t>it</t>
   </si>
   <si>
     <t>Current Basis</t>

--- a/Python/Simplex_prova.xlsx
+++ b/Python/Simplex_prova.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>it</t>
   </si>
@@ -28,25 +28,22 @@
     <t>Current cost value</t>
   </si>
   <si>
-    <t>[8, 7]</t>
-  </si>
-  <si>
-    <t>[0, 7]</t>
-  </si>
-  <si>
-    <t>[0, 2]</t>
-  </si>
-  <si>
-    <t>[ 0.  0.  0.  0.  0.  0.  0. 10.  5.]</t>
-  </si>
-  <si>
-    <t>[5. 0. 0. 0. 0. 0. 0. 5. 0.]</t>
-  </si>
-  <si>
-    <t>[7.5 0.  2.5 0.  0.  0.  0.  0.  0. ]</t>
-  </si>
-  <si>
-    <t>[7.5 0.  2.5 0.  0.  0.  0. ]</t>
+    <t>[2, 3, 4]</t>
+  </si>
+  <si>
+    <t>[2, 0, 4]</t>
+  </si>
+  <si>
+    <t>[1, 0, 4]</t>
+  </si>
+  <si>
+    <t>[0. 0. 4. 3. 1.]</t>
+  </si>
+  <si>
+    <t>[1.5 0.  2.5 0.  1. ]</t>
+  </si>
+  <si>
+    <t>[2. 1. 0. 0. 0.]</t>
   </si>
 </sst>
 </file>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +423,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -435,12 +432,12 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -449,12 +446,12 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -463,21 +460,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>85</v>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Simplex_prova.xlsx
+++ b/Python/Simplex_prova.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>it</t>
   </si>
@@ -28,22 +28,34 @@
     <t>Current cost value</t>
   </si>
   <si>
-    <t>[2, 3, 4]</t>
-  </si>
-  <si>
-    <t>[2, 0, 4]</t>
-  </si>
-  <si>
-    <t>[1, 0, 4]</t>
-  </si>
-  <si>
-    <t>[0. 0. 4. 3. 1.]</t>
-  </si>
-  <si>
-    <t>[1.5 0.  2.5 0.  1. ]</t>
-  </si>
-  <si>
-    <t>[2. 1. 0. 0. 0.]</t>
+    <t>[4, 5, 6]</t>
+  </si>
+  <si>
+    <t>[0, 5, 6]</t>
+  </si>
+  <si>
+    <t>[0, 1, 6]</t>
+  </si>
+  <si>
+    <t>[2, 1, 6]</t>
+  </si>
+  <si>
+    <t>[2, 3, 6]</t>
+  </si>
+  <si>
+    <t>[2, 3, 0]</t>
+  </si>
+  <si>
+    <t>[2, 4, 0]</t>
+  </si>
+  <si>
+    <t>[0. 0. 0. 0. 0. 0. 1.]</t>
+  </si>
+  <si>
+    <t>[0.016 0.    1.    0.004 0.    0.    0.   ]</t>
+  </si>
+  <si>
+    <t>[0.04 0.   1.   0.   0.03 0.   0.  ]</t>
   </si>
 </sst>
 </file>
@@ -401,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +441,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -443,10 +455,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -457,10 +469,66 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>-3</v>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>-0.008000000000000035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>-0.05000000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Simplex_prova.xlsx
+++ b/Python/Simplex_prova.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>it</t>
   </si>
@@ -28,34 +28,28 @@
     <t>Current cost value</t>
   </si>
   <si>
-    <t>[4, 5, 6]</t>
-  </si>
-  <si>
-    <t>[0, 5, 6]</t>
-  </si>
-  <si>
-    <t>[0, 1, 6]</t>
-  </si>
-  <si>
-    <t>[2, 1, 6]</t>
-  </si>
-  <si>
-    <t>[2, 3, 6]</t>
-  </si>
-  <si>
-    <t>[2, 3, 0]</t>
-  </si>
-  <si>
-    <t>[2, 4, 0]</t>
-  </si>
-  <si>
-    <t>[0. 0. 0. 0. 0. 0. 1.]</t>
-  </si>
-  <si>
-    <t>[0.016 0.    1.    0.004 0.    0.    0.   ]</t>
-  </si>
-  <si>
-    <t>[0.04 0.   1.   0.   0.03 0.   0.  ]</t>
+    <t>[2, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>[0, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>[0, 3, 4, 1]</t>
+  </si>
+  <si>
+    <t>[0, 3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[   0.    0. 1000. 1500. 1750. 4800.]</t>
+  </si>
+  <si>
+    <t>[1000.    0.    0. 1500.  750.  800.]</t>
+  </si>
+  <si>
+    <t>[1000.  400.    0. 1100.  350.    0.]</t>
+  </si>
+  <si>
+    <t>[ 650. 1100.  350.  400.    0.    0.]</t>
   </si>
 </sst>
 </file>
@@ -413,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -455,10 +449,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-12000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -469,10 +463,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-15600</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,49 +480,7 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>-0.008000000000000035</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>-0.05000000000000002</v>
+        <v>-17700</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Simplex_prova.xlsx
+++ b/Python/Simplex_prova.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>it</t>
   </si>
@@ -28,28 +28,34 @@
     <t>Current cost value</t>
   </si>
   <si>
-    <t>[2, 3, 4, 5]</t>
-  </si>
-  <si>
-    <t>[0, 3, 4, 5]</t>
-  </si>
-  <si>
-    <t>[0, 3, 4, 1]</t>
-  </si>
-  <si>
-    <t>[0, 3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[   0.    0. 1000. 1500. 1750. 4800.]</t>
-  </si>
-  <si>
-    <t>[1000.    0.    0. 1500.  750.  800.]</t>
-  </si>
-  <si>
-    <t>[1000.  400.    0. 1100.  350.    0.]</t>
-  </si>
-  <si>
-    <t>[ 650. 1100.  350.  400.    0.    0.]</t>
+    <t>[4, 5, 6]</t>
+  </si>
+  <si>
+    <t>[0, 5, 6]</t>
+  </si>
+  <si>
+    <t>[0, 1, 6]</t>
+  </si>
+  <si>
+    <t>[2, 1, 6]</t>
+  </si>
+  <si>
+    <t>[2, 3, 6]</t>
+  </si>
+  <si>
+    <t>[2, 3, 0]</t>
+  </si>
+  <si>
+    <t>[2, 4, 0]</t>
+  </si>
+  <si>
+    <t>[0. 0. 0. 0. 0. 0. 1.]</t>
+  </si>
+  <si>
+    <t>[0.016 0.    1.    0.004 0.    0.    0.   ]</t>
+  </si>
+  <si>
+    <t>[0.04 0.   1.   0.   0.03 0.   0.  ]</t>
   </si>
 </sst>
 </file>
@@ -407,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,7 +441,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -449,10 +455,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>-12000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,10 +469,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>-15600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -480,7 +486,49 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>-17700</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>-0.008000000000000035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>-0.05000000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Simplex_prova.xlsx
+++ b/Python/Simplex_prova.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>it</t>
   </si>
@@ -28,34 +28,16 @@
     <t>Current cost value</t>
   </si>
   <si>
-    <t>[4, 5, 6]</t>
-  </si>
-  <si>
-    <t>[0, 5, 6]</t>
-  </si>
-  <si>
-    <t>[0, 1, 6]</t>
-  </si>
-  <si>
-    <t>[2, 1, 6]</t>
-  </si>
-  <si>
-    <t>[2, 3, 6]</t>
-  </si>
-  <si>
-    <t>[2, 3, 0]</t>
-  </si>
-  <si>
-    <t>[2, 4, 0]</t>
-  </si>
-  <si>
-    <t>[0. 0. 0. 0. 0. 0. 1.]</t>
-  </si>
-  <si>
-    <t>[0.016 0.    1.    0.004 0.    0.    0.   ]</t>
-  </si>
-  <si>
-    <t>[0.04 0.   1.   0.   0.03 0.   0.  ]</t>
+    <t>[2, 3]</t>
+  </si>
+  <si>
+    <t>[0, 3]</t>
+  </si>
+  <si>
+    <t>[0. 0. 1. 1.]</t>
+  </si>
+  <si>
+    <t>[1. 0. 0. 2.]</t>
   </si>
 </sst>
 </file>
@@ -413,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -455,80 +437,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>-0.008000000000000035</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>-0.05000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Simplex_prova.xlsx
+++ b/Python/Simplex_prova.xlsx
@@ -28,16 +28,16 @@
     <t>Current cost value</t>
   </si>
   <si>
-    <t>[2, 3]</t>
-  </si>
-  <si>
-    <t>[0, 3]</t>
-  </si>
-  <si>
-    <t>[0. 0. 1. 1.]</t>
-  </si>
-  <si>
-    <t>[1. 0. 0. 2.]</t>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[0. 0. 3.]</t>
+  </si>
+  <si>
+    <t>[3. 0. 0.]</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
